--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo1-Znrf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Znrf3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Znrf3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H2">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I2">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J2">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.063418</v>
+        <v>0.7154376666666667</v>
       </c>
       <c r="N2">
-        <v>3.190254</v>
+        <v>2.146313</v>
       </c>
       <c r="O2">
-        <v>0.0908628824358815</v>
+        <v>0.05718859144736913</v>
       </c>
       <c r="P2">
-        <v>0.1028742253445915</v>
+        <v>0.06498002791311712</v>
       </c>
       <c r="Q2">
-        <v>0.5139208526413334</v>
+        <v>0.02468379189611111</v>
       </c>
       <c r="R2">
-        <v>4.625287673772</v>
+        <v>0.222154127065</v>
       </c>
       <c r="S2">
-        <v>0.03941680931303373</v>
+        <v>0.00361766185910972</v>
       </c>
       <c r="T2">
-        <v>0.04462739476149977</v>
+        <v>0.004110536081335555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H3">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I3">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J3">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.853215333333334</v>
+        <v>1.853215333333333</v>
       </c>
       <c r="N3">
-        <v>5.559646000000001</v>
+        <v>5.559646</v>
       </c>
       <c r="O3">
-        <v>0.1583464704951766</v>
+        <v>0.1481369789429594</v>
       </c>
       <c r="P3">
-        <v>0.1792786014656379</v>
+        <v>0.1683193235409048</v>
       </c>
       <c r="Q3">
-        <v>0.8956083160475558</v>
+        <v>0.06393901769222222</v>
       </c>
       <c r="R3">
-        <v>8.060474844428001</v>
+        <v>0.57545115923</v>
       </c>
       <c r="S3">
-        <v>0.06869155441227276</v>
+        <v>0.009370916210427797</v>
       </c>
       <c r="T3">
-        <v>0.07777202591899994</v>
+        <v>0.01064762011992328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H4">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I4">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J4">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.214728</v>
+        <v>2.352629</v>
       </c>
       <c r="N4">
-        <v>6.644184</v>
+        <v>7.057887</v>
       </c>
       <c r="O4">
-        <v>0.1892356250237018</v>
+        <v>0.1880576673228452</v>
       </c>
       <c r="P4">
-        <v>0.2142510540060226</v>
+        <v>0.2136788503203524</v>
       </c>
       <c r="Q4">
-        <v>1.070317506501333</v>
+        <v>0.08116962154833333</v>
       </c>
       <c r="R4">
-        <v>9.632857558512001</v>
+        <v>0.730526593935</v>
       </c>
       <c r="S4">
-        <v>0.08209143653411601</v>
+        <v>0.01189623722439659</v>
       </c>
       <c r="T4">
-        <v>0.09294326477955693</v>
+        <v>0.01351699364048448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H5">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I5">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J5">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0994325</v>
+        <v>4.500090999999999</v>
       </c>
       <c r="N5">
-        <v>8.198865</v>
+        <v>9.000181999999999</v>
       </c>
       <c r="O5">
-        <v>0.3502726616451215</v>
+        <v>0.3597152871109425</v>
       </c>
       <c r="P5">
-        <v>0.2643839285460921</v>
+        <v>0.2724821950867064</v>
       </c>
       <c r="Q5">
-        <v>1.981143676095</v>
+        <v>0.1552606396516666</v>
       </c>
       <c r="R5">
-        <v>11.88686205657</v>
+        <v>0.9315638379099999</v>
       </c>
       <c r="S5">
-        <v>0.1519501730684953</v>
+        <v>0.02275503280261022</v>
       </c>
       <c r="T5">
-        <v>0.1146911766120327</v>
+        <v>0.01723680229751522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4832726666666667</v>
+        <v>0.03450166666666667</v>
       </c>
       <c r="H6">
-        <v>1.449818</v>
+        <v>0.103505</v>
       </c>
       <c r="I6">
-        <v>0.4338054027820291</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="J6">
-        <v>0.4338054027820292</v>
+        <v>0.06325845361026364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.472753</v>
+        <v>3.088773666666667</v>
       </c>
       <c r="N6">
-        <v>7.418259000000001</v>
+        <v>9.266321</v>
       </c>
       <c r="O6">
-        <v>0.2112823604001186</v>
+        <v>0.2469014751758839</v>
       </c>
       <c r="P6">
-        <v>0.239212190637656</v>
+        <v>0.2805396031389193</v>
       </c>
       <c r="Q6">
-        <v>1.195013936318</v>
+        <v>0.1065678394561111</v>
       </c>
       <c r="R6">
-        <v>10.755125426862</v>
+        <v>0.959110555105</v>
       </c>
       <c r="S6">
-        <v>0.09165542945411129</v>
+        <v>0.01561860551371931</v>
       </c>
       <c r="T6">
-        <v>0.1037715407099399</v>
+        <v>0.0177465014710051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.532719</v>
       </c>
       <c r="I7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J7">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.063418</v>
+        <v>0.7154376666666667</v>
       </c>
       <c r="N7">
-        <v>3.190254</v>
+        <v>2.146313</v>
       </c>
       <c r="O7">
-        <v>0.0908628824358815</v>
+        <v>0.05718859144736913</v>
       </c>
       <c r="P7">
-        <v>0.1028742253445915</v>
+        <v>0.06498002791311712</v>
       </c>
       <c r="Q7">
-        <v>0.5433069911806667</v>
+        <v>0.3655216350052223</v>
       </c>
       <c r="R7">
-        <v>4.889762920626</v>
+        <v>3.289694715047</v>
       </c>
       <c r="S7">
-        <v>0.04167067352830752</v>
+        <v>0.05357092958825942</v>
       </c>
       <c r="T7">
-        <v>0.04717920171459532</v>
+        <v>0.06086949183178157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>1.532719</v>
       </c>
       <c r="I8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J8">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.853215333333334</v>
+        <v>1.853215333333333</v>
       </c>
       <c r="N8">
-        <v>5.559646000000001</v>
+        <v>5.559646</v>
       </c>
       <c r="O8">
-        <v>0.1583464704951766</v>
+        <v>0.1481369789429594</v>
       </c>
       <c r="P8">
-        <v>0.1792786014656379</v>
+        <v>0.1683193235409048</v>
       </c>
       <c r="Q8">
-        <v>0.9468194508304446</v>
+        <v>0.9468194508304444</v>
       </c>
       <c r="R8">
-        <v>8.521375057474001</v>
+        <v>8.521375057474</v>
       </c>
       <c r="S8">
-        <v>0.07261935676562457</v>
+        <v>0.1387660627325316</v>
       </c>
       <c r="T8">
-        <v>0.08221905218071761</v>
+        <v>0.1576717034209815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>1.532719</v>
       </c>
       <c r="I9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J9">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214728</v>
+        <v>2.352629</v>
       </c>
       <c r="N9">
-        <v>6.644184</v>
+        <v>7.057887</v>
       </c>
       <c r="O9">
-        <v>0.1892356250237018</v>
+        <v>0.1880576673228452</v>
       </c>
       <c r="P9">
-        <v>0.2142510540060226</v>
+        <v>0.2136788503203524</v>
       </c>
       <c r="Q9">
-        <v>1.131518561810667</v>
+        <v>1.201973056083667</v>
       </c>
       <c r="R9">
-        <v>10.183667056296</v>
+        <v>10.817757504753</v>
       </c>
       <c r="S9">
-        <v>0.08678544790665708</v>
+        <v>0.1761614300984486</v>
       </c>
       <c r="T9">
-        <v>0.09825778673575422</v>
+        <v>0.2001618566798679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>1.532719</v>
       </c>
       <c r="I10">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J10">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.0994325</v>
+        <v>4.500090999999999</v>
       </c>
       <c r="N10">
-        <v>8.198865</v>
+        <v>9.000181999999999</v>
       </c>
       <c r="O10">
-        <v>0.3502726616451215</v>
+        <v>0.3597152871109425</v>
       </c>
       <c r="P10">
-        <v>0.2643839285460921</v>
+        <v>0.2724821950867064</v>
       </c>
       <c r="Q10">
-        <v>2.0944260273225</v>
+        <v>2.299124992476333</v>
       </c>
       <c r="R10">
-        <v>12.566556163935</v>
+        <v>13.794749954858</v>
       </c>
       <c r="S10">
-        <v>0.1606387265955941</v>
+        <v>0.3369602543083323</v>
       </c>
       <c r="T10">
-        <v>0.121249250268391</v>
+        <v>0.2552453927891912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1.532719</v>
       </c>
       <c r="I11">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="J11">
-        <v>0.4586105174212687</v>
+        <v>0.9367415463897364</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.472753</v>
+        <v>3.088773666666667</v>
       </c>
       <c r="N11">
-        <v>7.418259000000001</v>
+        <v>9.266321</v>
       </c>
       <c r="O11">
-        <v>0.2112823604001186</v>
+        <v>0.2469014751758839</v>
       </c>
       <c r="P11">
-        <v>0.239212190637656</v>
+        <v>0.2805396031389193</v>
       </c>
       <c r="Q11">
-        <v>1.263345168469</v>
+        <v>1.578074028533222</v>
       </c>
       <c r="R11">
-        <v>11.370106516221</v>
+        <v>14.202666256799</v>
       </c>
       <c r="S11">
-        <v>0.09689631262508536</v>
+        <v>0.2312828696621646</v>
       </c>
       <c r="T11">
-        <v>0.1097052265218106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.119852</v>
-      </c>
-      <c r="H12">
-        <v>0.359556</v>
-      </c>
-      <c r="I12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J12">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.063418</v>
-      </c>
-      <c r="N12">
-        <v>3.190254</v>
-      </c>
-      <c r="O12">
-        <v>0.0908628824358815</v>
-      </c>
-      <c r="P12">
-        <v>0.1028742253445915</v>
-      </c>
-      <c r="Q12">
-        <v>0.127452774136</v>
-      </c>
-      <c r="R12">
-        <v>1.147074967224</v>
-      </c>
-      <c r="S12">
-        <v>0.009775399594540251</v>
-      </c>
-      <c r="T12">
-        <v>0.01106762886849647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.119852</v>
-      </c>
-      <c r="H13">
-        <v>0.359556</v>
-      </c>
-      <c r="I13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J13">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.853215333333334</v>
-      </c>
-      <c r="N13">
-        <v>5.559646000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1583464704951766</v>
-      </c>
-      <c r="P13">
-        <v>0.1792786014656379</v>
-      </c>
-      <c r="Q13">
-        <v>0.2221115641306667</v>
-      </c>
-      <c r="R13">
-        <v>1.999004077176</v>
-      </c>
-      <c r="S13">
-        <v>0.01703555931727923</v>
-      </c>
-      <c r="T13">
-        <v>0.01928752336592037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.119852</v>
-      </c>
-      <c r="H14">
-        <v>0.359556</v>
-      </c>
-      <c r="I14">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J14">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.214728</v>
-      </c>
-      <c r="N14">
-        <v>6.644184</v>
-      </c>
-      <c r="O14">
-        <v>0.1892356250237018</v>
-      </c>
-      <c r="P14">
-        <v>0.2142510540060226</v>
-      </c>
-      <c r="Q14">
-        <v>0.265439580256</v>
-      </c>
-      <c r="R14">
-        <v>2.388956222304</v>
-      </c>
-      <c r="S14">
-        <v>0.02035874058292876</v>
-      </c>
-      <c r="T14">
-        <v>0.0230500024907115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.119852</v>
-      </c>
-      <c r="H15">
-        <v>0.359556</v>
-      </c>
-      <c r="I15">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J15">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.0994325</v>
-      </c>
-      <c r="N15">
-        <v>8.198865</v>
-      </c>
-      <c r="O15">
-        <v>0.3502726616451215</v>
-      </c>
-      <c r="P15">
-        <v>0.2643839285460921</v>
-      </c>
-      <c r="Q15">
-        <v>0.49132518399</v>
-      </c>
-      <c r="R15">
-        <v>2.94795110394</v>
-      </c>
-      <c r="S15">
-        <v>0.03768376198103204</v>
-      </c>
-      <c r="T15">
-        <v>0.0284435016656684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.119852</v>
-      </c>
-      <c r="H16">
-        <v>0.359556</v>
-      </c>
-      <c r="I16">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="J16">
-        <v>0.1075840797967022</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.472753</v>
-      </c>
-      <c r="N16">
-        <v>7.418259000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.2112823604001186</v>
-      </c>
-      <c r="P16">
-        <v>0.239212190637656</v>
-      </c>
-      <c r="Q16">
-        <v>0.2963643925560001</v>
-      </c>
-      <c r="R16">
-        <v>2.667279533004</v>
-      </c>
-      <c r="S16">
-        <v>0.02273061832092196</v>
-      </c>
-      <c r="T16">
-        <v>0.02573542340590553</v>
+        <v>0.2627931016679142</v>
       </c>
     </row>
   </sheetData>
